--- a/examples/Communication-MMO-Examples/Config/Excel/Server/SceneConfig.xlsx
+++ b/examples/Communication-MMO-Examples/Config/Excel/Server/SceneConfig.xlsx
@@ -1302,7 +1302,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/examples/Communication-MMO-Examples/Config/Excel/Server/SceneConfig.xlsx
+++ b/examples/Communication-MMO-Examples/Config/Excel/Server/SceneConfig.xlsx
@@ -1302,7 +1302,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B13" sqref="B13:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1703,7 +1703,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="2"/>
@@ -1819,7 +1819,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="2"/>
